--- a/meta/labels/ja/LabelsJa.xlsx
+++ b/meta/labels/ja/LabelsJa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhaino/Desktop/dapanda-front-core/meta/labels/ja/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-front-core/meta/labels/ja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B918BE5F-C669-1C40-9E3B-918DF94B8C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F210092-433D-6746-B671-43A03A668028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3280" yWindow="1740" windowWidth="25520" windowHeight="15540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,11 +373,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>import {LocaleLabels} from "@/i18n/LocaleLabels";</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>LocaleLabels</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>import {LocaleLabels} from "@/i18n/LocaleLabels"</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1659,8 +1659,8 @@
   </sheetPr>
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>

--- a/meta/labels/ja/LabelsJa.xlsx
+++ b/meta/labels/ja/LabelsJa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-front-core/meta/labels/ja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F210092-433D-6746-B671-43A03A668028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C4BB2C-B170-0147-9FD6-E96CEEA39FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="1740" windowWidth="25520" windowHeight="15540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18340" yWindow="9640" windowWidth="25520" windowHeight="15540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>クラス名</t>
   </si>
@@ -378,6 +378,23 @@
   </si>
   <si>
     <t>import {LocaleLabels} from "@/i18n/LocaleLabels"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>/* TypeScript 独自。インタフェイス指定が優先します。 */</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ドクジ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">シテイガ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ユウセｎ </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1657,10 +1674,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1900,12 +1917,16 @@
       <c r="K16"/>
     </row>
     <row r="17" spans="1:15" s="32" customFormat="1">
-      <c r="A17" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17"/>
+      <c r="A17" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -1916,7 +1937,7 @@
     </row>
     <row r="18" spans="1:15" s="32" customFormat="1">
       <c r="A18" s="65" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -1931,12 +1952,10 @@
     </row>
     <row r="19" spans="1:15" s="32" customFormat="1">
       <c r="A19" s="65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="66"/>
-      <c r="C19" s="67" t="s">
-        <v>31</v>
-      </c>
+      <c r="C19" s="67"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -1947,16 +1966,14 @@
       <c r="K19"/>
     </row>
     <row r="20" spans="1:15" s="32" customFormat="1">
-      <c r="A20" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="104"/>
+      <c r="A20" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="66"/>
       <c r="C20" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
+      <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -1965,85 +1982,89 @@
       <c r="J20" s="72"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:15" s="40" customFormat="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="30" t="s">
+    <row r="21" spans="1:15" s="32" customFormat="1">
+      <c r="A21" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="104"/>
+      <c r="C21" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="72"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:15" s="40" customFormat="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
+      <c r="A24" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="76"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
@@ -2051,12 +2072,14 @@
       <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
@@ -2064,69 +2087,65 @@
       <c r="K26" s="38"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="50" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B29" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="38"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="54"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="54"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="71"/>
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
@@ -2138,12 +2157,12 @@
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="55"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="71"/>
       <c r="H31" s="71"/>
       <c r="I31" s="71"/>
@@ -2154,85 +2173,85 @@
       <c r="N31" s="39"/>
       <c r="O31" s="38"/>
     </row>
-    <row r="32" spans="1:15" s="40" customFormat="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
+    <row r="32" spans="1:15">
+      <c r="A32" s="55"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
       <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="30" t="s">
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="38"/>
+    </row>
+    <row r="33" spans="1:15" s="40" customFormat="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="50" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B35" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="38"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="54"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
       <c r="O35" s="38"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="54"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="71"/>
       <c r="H36" s="71"/>
       <c r="I36" s="71"/>
@@ -2244,12 +2263,12 @@
       <c r="O36" s="38"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
       <c r="I37" s="71"/>
@@ -2261,87 +2280,87 @@
       <c r="O37" s="38"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="38"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="50" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B41" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="38"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="54">
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="38"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="54">
         <v>1</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B42" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="38"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="54"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="71"/>
       <c r="H42" s="71"/>
       <c r="I42" s="71"/>
@@ -2353,12 +2372,12 @@
       <c r="O42" s="38"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="55"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="71"/>
       <c r="H43" s="71"/>
       <c r="I43" s="71"/>
@@ -2370,117 +2389,114 @@
       <c r="O43" s="38"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="38"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="15"/>
-    </row>
-    <row r="46" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A46" s="97" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="15"/>
+    </row>
+    <row r="47" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A47" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="97" t="s">
+      <c r="B47" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="96" t="s">
+      <c r="C47" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="96" t="s">
+      <c r="D47" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="98" t="s">
+      <c r="E47" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="96" t="s">
+      <c r="F47" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="98" t="s">
+      <c r="G47" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="98" t="s">
+      <c r="H47" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="101" t="s">
+      <c r="I47" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="J46" s="101" t="s">
+      <c r="J47" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="96" t="s">
+      <c r="K47" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L46" s="96"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="9"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="97"/>
-      <c r="B47" s="97"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="96"/>
       <c r="L47" s="96"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="15"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="19">
-        <v>1</v>
-      </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="28"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="29"/>
       <c r="O48" s="15"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="19">
-        <f>A48+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="79"/>
       <c r="C49" s="86"/>
@@ -2499,11 +2515,11 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="19">
-        <f t="shared" ref="A50:A64" si="0">A49+1</f>
-        <v>3</v>
-      </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="87"/>
+        <f>A49+1</f>
+        <v>2</v>
+      </c>
+      <c r="B50" s="79"/>
+      <c r="C50" s="86"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -2514,16 +2530,16 @@
       <c r="K50" s="20"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
-      <c r="N50" s="22"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="15"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="88"/>
+        <f t="shared" ref="A51:A65" si="0">A50+1</f>
+        <v>3</v>
+      </c>
+      <c r="B51" s="80"/>
+      <c r="C51" s="87"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -2540,7 +2556,7 @@
     <row r="52" spans="1:15">
       <c r="A52" s="19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="81"/>
       <c r="C52" s="88"/>
@@ -2560,67 +2576,67 @@
     <row r="53" spans="1:15">
       <c r="A53" s="19">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="81"/>
       <c r="C53" s="88"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="85"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="22"/>
       <c r="O53" s="15"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="19">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="81"/>
       <c r="C54" s="88"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="22"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="85"/>
       <c r="O54" s="15"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="19">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="81"/>
       <c r="C55" s="88"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="85"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="22"/>
       <c r="O55" s="15"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="19">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" s="81"/>
       <c r="C56" s="88"/>
@@ -2640,47 +2656,47 @@
     <row r="57" spans="1:15">
       <c r="A57" s="19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" s="81"/>
       <c r="C57" s="88"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="22"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="85"/>
       <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="19">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="81"/>
       <c r="C58" s="88"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="85"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="22"/>
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" s="81"/>
       <c r="C59" s="88"/>
@@ -2700,47 +2716,47 @@
     <row r="60" spans="1:15">
       <c r="A60" s="19">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" s="81"/>
       <c r="C60" s="88"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="22"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="85"/>
       <c r="O60" s="15"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="19">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="81"/>
       <c r="C61" s="88"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="85"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="22"/>
       <c r="O61" s="15"/>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="19">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" s="81"/>
       <c r="C62" s="88"/>
@@ -2760,97 +2776,118 @@
     <row r="63" spans="1:15">
       <c r="A63" s="19">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" s="81"/>
       <c r="C63" s="88"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="22"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="85"/>
       <c r="O63" s="15"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="19">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64" s="81"/>
       <c r="C64" s="88"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="82"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="85"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="22"/>
       <c r="O64" s="15"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="27"/>
+      <c r="A65" s="19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B65" s="81"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="82"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="85"/>
       <c r="O65" s="15"/>
     </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="23"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="K47:L48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations disablePrompts="1" count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F81:J81" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F82:J82" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C20" xr:uid="{78FE03A8-B82F-DD42-A5B2-F5AED31EB8E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C21" xr:uid="{78FE03A8-B82F-DD42-A5B2-F5AED31EB8E5}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{643F6C9A-8760-224C-A7F5-6893BC2E6C68}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{643F6C9A-8760-224C-A7F5-6893BC2E6C68}">
       <formula1>createToString</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{0933AF92-3C0C-2F47-AF58-F84946F39270}">
       <formula1>accessScope2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C16 G48:G65" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49:G66 C15:C17" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
       <formula1>isAbstract</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{061A2328-C320-074B-A7A0-1D5ADA23E625}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{061A2328-C320-074B-A7A0-1D5ADA23E625}">
       <formula1>isFinal</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{2D8A5CB0-577F-DA47-9664-36C261082ADA}">
@@ -2864,12 +2901,12 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D7EF1AF-B173-884C-9E34-724A844BDD2E}">
           <x14:formula1>
             <xm:f>config!$P$4:$P$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H48:J65</xm:sqref>
+          <xm:sqref>H49:J66</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
